--- a/database/relatorio/PE 90006-2024/MEDICENTRO_COMERCIO_DE_MEDICAMENTOS_LTDA/relacao_itens.xlsx
+++ b/database/relatorio/PE 90006-2024/MEDICENTRO_COMERCIO_DE_MEDICAMENTOS_LTDA/relacao_itens.xlsx
@@ -439,7 +439,7 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Item: 32 - ATADURA (444609)</t>
+          <t>Grupo N/A - Item 32 - ATADURA (444609)</t>
         </is>
       </c>
     </row>
@@ -487,7 +487,7 @@
     <row r="5">
       <c r="A5" s="1" t="inlineStr">
         <is>
-          <t>Item: 33 - ATADURA (444613)</t>
+          <t>Grupo N/A - Item 33 - ATADURA (444613)</t>
         </is>
       </c>
     </row>
@@ -535,7 +535,7 @@
     <row r="9">
       <c r="A9" s="1" t="inlineStr">
         <is>
-          <t>Item: 34 - ATADURA (444614)</t>
+          <t>Grupo N/A - Item 34 - ATADURA (444614)</t>
         </is>
       </c>
     </row>
@@ -583,7 +583,7 @@
     <row r="13">
       <c r="A13" s="1" t="inlineStr">
         <is>
-          <t>Item: 51 - CLORETO DE SÓDIO (452796)</t>
+          <t>Grupo N/A - Item 51 - CLORETO DE SÓDIO (452796)</t>
         </is>
       </c>
     </row>
@@ -631,7 +631,7 @@
     <row r="17">
       <c r="A17" s="1" t="inlineStr">
         <is>
-          <t>Item: 53 - CLORETO DE SÓDIO (452796)</t>
+          <t>Grupo N/A - Item 53 - CLORETO DE SÓDIO (452796)</t>
         </is>
       </c>
     </row>
@@ -679,7 +679,7 @@
     <row r="21">
       <c r="A21" s="1" t="inlineStr">
         <is>
-          <t>Item: 71 - DETERGENTE ENZIMÁTICO (436710)</t>
+          <t>Grupo N/A - Item 71 - DETERGENTE ENZIMÁTICO (436710)</t>
         </is>
       </c>
     </row>
@@ -727,7 +727,7 @@
     <row r="25">
       <c r="A25" s="1" t="inlineStr">
         <is>
-          <t>Item: 97 - FITA HOSPITALAR (437862)</t>
+          <t>Grupo N/A - Item 97 - FITA HOSPITALAR (437862)</t>
         </is>
       </c>
     </row>
@@ -775,7 +775,7 @@
     <row r="29">
       <c r="A29" s="1" t="inlineStr">
         <is>
-          <t>Item: 108 - GLICOSE (270092)</t>
+          <t>Grupo N/A - Item 108 - GLICOSE (270092)</t>
         </is>
       </c>
     </row>
@@ -823,7 +823,7 @@
     <row r="33">
       <c r="A33" s="1" t="inlineStr">
         <is>
-          <t>Item: 109 - GLICOSE (270092)</t>
+          <t>Grupo N/A - Item 109 - GLICOSE (270092)</t>
         </is>
       </c>
     </row>
@@ -871,7 +871,7 @@
     <row r="37">
       <c r="A37" s="1" t="inlineStr">
         <is>
-          <t>Item: 141 - PROTETOR SOLAR (405888)</t>
+          <t>Grupo N/A - Item 141 - PROTETOR SOLAR (405888)</t>
         </is>
       </c>
     </row>
@@ -919,7 +919,7 @@
     <row r="41">
       <c r="A41" s="1" t="inlineStr">
         <is>
-          <t>Item: 143 - RINGER (303292)</t>
+          <t>Grupo N/A - Item 143 - RINGER (303292)</t>
         </is>
       </c>
     </row>
@@ -967,7 +967,7 @@
     <row r="45">
       <c r="A45" s="1" t="inlineStr">
         <is>
-          <t>Item: 146 - SACO PLÁSTICO LIXO (246550)</t>
+          <t>Grupo N/A - Item 146 - SACO PLÁSTICO LIXO (246550)</t>
         </is>
       </c>
     </row>
@@ -1015,7 +1015,7 @@
     <row r="49">
       <c r="A49" s="1" t="inlineStr">
         <is>
-          <t>Item: 158 - TORNEIRINHA (457481)</t>
+          <t>Grupo N/A - Item 158 - TORNEIRINHA (457481)</t>
         </is>
       </c>
     </row>
